--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>xiaoming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,14 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoming</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oxhhddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +98,6 @@
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -519,6 +503,22 @@
   </si>
   <si>
     <t>http://example.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxhhddd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,37 +957,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1307,35 +1307,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1344,27 +1344,27 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="B8" s="31" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="20"/>
@@ -1372,10 +1372,10 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="31"/>
       <c r="B10" s="31" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1393,9 +1393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I33" sqref="I33"/>
+      <selection pane="topRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1410,13 +1410,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+        <v>48</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="50"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="18"/>
@@ -1440,13 +1440,13 @@
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="50"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
@@ -1455,13 +1455,13 @@
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="50"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="30"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1483,56 +1483,56 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="G6" s="33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="13" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1541,28 +1541,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1582,57 +1582,57 @@
     <row r="10" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1640,25 +1640,25 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+        <v>49</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="29"/>
       <c r="F14" s="8"/>
       <c r="G14" s="18"/>
@@ -1667,13 +1667,13 @@
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
@@ -1682,13 +1682,13 @@
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="29"/>
       <c r="F16" s="8"/>
       <c r="G16" s="15"/>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="29"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -1711,13 +1711,13 @@
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="30"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1725,63 +1725,63 @@
     </row>
     <row r="19" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="G19" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="37" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="38" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H20" s="38"/>
     </row>
     <row r="21" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="13">
@@ -1794,43 +1794,43 @@
     <row r="22" spans="1:9" s="35" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="36" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="G23" s="28">
         <v>200</v>
@@ -1842,31 +1842,31 @@
     <row r="24" spans="1:9" s="16" customFormat="1" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
@@ -1874,7 +1874,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -1882,13 +1882,13 @@
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+        <v>50</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="29"/>
       <c r="F27" s="8"/>
       <c r="G27" s="18"/>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
+        <v>6</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="29"/>
       <c r="F29" s="8"/>
       <c r="G29" s="15"/>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+        <v>8</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="29"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+        <v>7</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="30"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -1955,76 +1955,76 @@
     </row>
     <row r="32" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B32" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="G32" s="28" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I33" s="41" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B34" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="23" t="s">
         <v>29</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F34" s="23" t="s">
-        <v>33</v>
       </c>
       <c r="G34" s="28">
         <v>200</v>
@@ -2039,33 +2039,33 @@
     <row r="35" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C35" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="E35" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I35" s="38" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -2073,24 +2073,17 @@
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
       <c r="G36" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B16:D16"/>
@@ -2099,6 +2092,13 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/example.xlsx
+++ b/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>Q123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,14 @@
   </si>
   <si>
     <t>Oxhhddd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应延时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -957,18 +965,30 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -984,10 +1004,10 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1391,11 +1411,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G43" sqref="G43"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1412,11 +1432,11 @@
       <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
@@ -1427,11 +1447,11 @@
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="51" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="46"/>
-      <c r="D2" s="48"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="18"/>
@@ -1446,7 +1466,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="46"/>
-      <c r="D3" s="48"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
@@ -1461,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="C4" s="46"/>
-      <c r="D4" s="48"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1471,11 +1491,11 @@
       <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="30"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1630,488 +1650,504 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>22</v>
+    <row r="12" spans="1:9" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>103</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="44">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I13" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B15" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
       <c r="E16" s="29"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
       <c r="E17" s="29"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="30"/>
+      <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+    <row r="19" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="30"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F20" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="G20" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H20" s="28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="37" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+    <row r="21" spans="1:9" s="37" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>60</v>
-      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="13">
+      <c r="G21" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13">
         <v>100001</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H22" s="38">
         <v>100002</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="35" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="20" t="s">
+    <row r="23" spans="1:9" s="35" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D23" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="36" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H23" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="28">
+      <c r="G24" s="28">
         <v>200</v>
       </c>
-      <c r="H23" s="28">
+      <c r="H24" s="28">
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="16" customFormat="1" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
-      <c r="B24" s="22" t="s">
+    <row r="25" spans="1:9" s="16" customFormat="1" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C25" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H25" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="13" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B28" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-    </row>
-    <row r="28" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
     </row>
-    <row r="29" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
       <c r="E29" s="29"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
       <c r="E30" s="29"/>
+      <c r="F30" s="8"/>
       <c r="G30" s="15"/>
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="29"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="30"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F33" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="28" t="s">
+      <c r="G33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H33" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
-      <c r="B33" s="20" t="s">
+    <row r="34" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
+      <c r="B34" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="41" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="41" t="s">
+      <c r="H34" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I33" s="41" t="s">
+      <c r="I34" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="28">
+      <c r="G35" s="28">
         <v>200</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H35" s="7">
         <v>200</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I35" s="7">
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
-      <c r="B35" s="22" t="s">
+    <row r="36" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
+      <c r="B36" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C36" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H36" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I36" s="38" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
+    <row r="37" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="13" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I37" s="39" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E8 E10:E11 E35 E24 E33 E20:E22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E8 E10:E12 E36 E25 E34 E21:E23">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D7:D8 D10:D11 D35 D24 D33 D20:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D7:D8 D10:D12 D36 D25 D34 D21:D23">
       <formula1>"string,int,float,json"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B4 B17 B30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B4 B18 B31">
       <formula1>"GET,POST,PUT,DELETE,HEAD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B5 B18 B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="B5 B19 B32">
       <formula1>"self,owner,friend,login,logout,None,Admin"</formula1>
     </dataValidation>
   </dataValidations>

--- a/example.xlsx
+++ b/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>Q123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,10 +86,6 @@
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号登录接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -271,10 +267,6 @@
   </si>
   <si>
     <t>/api/authentication/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号登录接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -527,6 +519,18 @@
   </si>
   <si>
     <t>响应延时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取新闻详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -971,43 +975,43 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,35 +1331,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1364,27 +1368,27 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="B8" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="20"/>
@@ -1392,10 +1396,10 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="31"/>
       <c r="B10" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1419,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1430,13 +1434,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
@@ -1448,9 +1452,9 @@
         <v>17</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="46"/>
+        <v>104</v>
+      </c>
+      <c r="C2" s="50"/>
       <c r="D2" s="52"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
@@ -1462,10 +1466,10 @@
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="46"/>
+      <c r="B3" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="50"/>
       <c r="D3" s="52"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
@@ -1477,10 +1481,10 @@
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="46"/>
+      <c r="B4" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="50"/>
       <c r="D4" s="52"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
@@ -1492,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -1506,25 +1510,25 @@
         <v>16</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>12</v>
@@ -1533,16 +1537,16 @@
     <row r="7" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="13" t="s">
@@ -1552,7 +1556,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1561,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="13" t="s">
@@ -1577,12 +1581,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1602,28 +1606,28 @@
     <row r="10" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1632,13 +1636,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>5</v>
@@ -1651,8 +1655,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
-        <v>103</v>
+      <c r="A12" s="46" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1667,16 +1671,16 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
-        <v>22</v>
+      <c r="A13" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="56" t="s">
-        <v>102</v>
+      <c r="G13" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>4</v>
@@ -1688,13 +1692,13 @@
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+        <v>48</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
@@ -1705,11 +1709,11 @@
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="29"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18"/>
@@ -1720,11 +1724,11 @@
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+      <c r="B17" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="29"/>
       <c r="F17" s="8"/>
       <c r="G17" s="15"/>
@@ -1735,11 +1739,11 @@
       <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="B18" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
       <c r="E18" s="29"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1749,11 +1753,11 @@
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="B19" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="30"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1764,60 +1768,60 @@
         <v>16</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="F20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="37" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="13">
@@ -1830,43 +1834,43 @@
     <row r="23" spans="1:9" s="35" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="F24" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="G24" s="28">
         <v>200</v>
@@ -1878,31 +1882,31 @@
     <row r="25" spans="1:9" s="16" customFormat="1" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1918,13 +1922,13 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+        <v>49</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
@@ -1935,11 +1939,11 @@
       <c r="A29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="B29" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="29"/>
       <c r="F29" s="8"/>
       <c r="G29" s="18"/>
@@ -1950,11 +1954,11 @@
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="29"/>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
@@ -1965,11 +1969,11 @@
       <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="B31" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="29"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -1979,11 +1983,11 @@
       <c r="A32" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="B32" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="30"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1994,25 +1998,25 @@
         <v>16</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="F33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>29</v>
-      </c>
       <c r="G33" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>12</v>
@@ -2021,46 +2025,46 @@
     <row r="34" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="41" t="s">
         <v>93</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="G35" s="28">
         <v>200</v>
@@ -2075,33 +2079,33 @@
     <row r="36" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I36" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -2109,24 +2113,17 @@
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B17:D17"/>
@@ -2135,6 +2132,13 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/example.xlsx
+++ b/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
   <si>
     <t>Q123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>用户昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -198,22 +194,6 @@
   </si>
   <si>
     <r>
-      <t>EOMS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口文档</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="12"/>
@@ -235,14 +215,6 @@
       </rPr>
       <t>测试数据</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求Headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应Headers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,6 +503,50 @@
   </si>
   <si>
     <t>账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Example </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口文档</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response Headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -981,22 +997,28 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1318,12 +1340,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.75" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
@@ -1331,35 +1353,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1367,28 +1389,28 @@
       <c r="B5" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
-        <v>45</v>
+      <c r="A7" s="46" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="31"/>
       <c r="B8" s="31" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" s="23" t="s">
-        <v>46</v>
+      <c r="A9" s="46" t="s">
+        <v>102</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="20"/>
@@ -1396,10 +1418,10 @@
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="31"/>
       <c r="B10" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1441,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:D2"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1434,13 +1456,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
@@ -1449,13 +1471,13 @@
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="52"/>
+        <v>100</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="18"/>
@@ -1463,14 +1485,14 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
@@ -1478,28 +1500,28 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="52"/>
+      <c r="A4" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="30"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1507,46 +1529,46 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="D6" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="F6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="G6" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="13" t="s">
@@ -1556,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1565,28 +1587,28 @@
         <v>2</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1606,49 +1628,49 @@
     <row r="10" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>4</v>
@@ -1656,7 +1678,7 @@
     </row>
     <row r="12" spans="1:9" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1667,12 +1689,12 @@
         <v>0.5</v>
       </c>
       <c r="I12" s="43">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
@@ -1680,25 +1702,25 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>4</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+        <v>44</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
@@ -1707,13 +1729,13 @@
     </row>
     <row r="16" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+        <v>99</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="29"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18"/>
@@ -1721,14 +1743,14 @@
       <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="A17" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="29"/>
       <c r="F17" s="8"/>
       <c r="G17" s="15"/>
@@ -1737,13 +1759,13 @@
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="29"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1751,13 +1773,13 @@
     </row>
     <row r="19" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="30"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1765,63 +1787,63 @@
     </row>
     <row r="20" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="D20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="F20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="G20" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="37" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="13">
@@ -1834,43 +1856,43 @@
     <row r="23" spans="1:9" s="35" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="D24" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="E24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="F24" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="F24" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="G24" s="28">
         <v>200</v>
@@ -1882,31 +1904,31 @@
     <row r="25" spans="1:9" s="16" customFormat="1" ht="72.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
@@ -1914,7 +1936,7 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
@@ -1922,13 +1944,13 @@
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+        <v>45</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
@@ -1937,13 +1959,13 @@
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
       <c r="E29" s="29"/>
       <c r="F29" s="8"/>
       <c r="G29" s="18"/>
@@ -1951,14 +1973,14 @@
       <c r="I29" s="18"/>
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="A30" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="29"/>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
@@ -1967,13 +1989,13 @@
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+        <v>7</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="29"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -1981,13 +2003,13 @@
     </row>
     <row r="32" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="30"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -1995,76 +2017,76 @@
     </row>
     <row r="33" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="E33" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="F33" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>28</v>
-      </c>
       <c r="G33" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I34" s="41" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="D35" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="E35" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="F35" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="G35" s="28">
         <v>200</v>
@@ -2079,33 +2101,33 @@
     <row r="36" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H36" s="38" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I36" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -2113,13 +2135,13 @@
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
       <c r="G37" s="13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
   <si>
     <t>Q123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,13 +363,6 @@
   </si>
   <si>
     <t>{
-    "code": "0",
-    "message": "success"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "name": "admin",
     "age": 18
 }</t>
@@ -547,6 +540,36 @@
   </si>
   <si>
     <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "0",
+    "message": "success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "0",
+    "message": "success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无密码账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写任意密码都可以通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1003,6 +1026,24 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1012,15 +1053,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1028,12 +1063,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1356,7 +1385,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1378,10 +1407,10 @@
         <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1390,7 +1419,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>41</v>
@@ -1405,12 +1434,12 @@
         <v>61</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="20"/>
@@ -1437,11 +1466,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1449,85 +1478,88 @@
     <col min="1" max="3" width="18.875" style="18" customWidth="1"/>
     <col min="4" max="4" width="11" style="18" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="39.25" style="18" customWidth="1"/>
-    <col min="7" max="42" width="36.75" style="18" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="18" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="27.375" style="18" customWidth="1"/>
+    <col min="9" max="9" width="27.125" style="18" customWidth="1"/>
+    <col min="10" max="42" width="36.75" style="18" customWidth="1"/>
     <col min="43" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>100</v>
+      <c r="B2" s="57" t="s">
+        <v>99</v>
       </c>
       <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>48</v>
       </c>
       <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="51" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="30"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
@@ -1555,8 +1587,11 @@
       <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="20" t="s">
         <v>68</v>
@@ -1578,10 +1613,13 @@
         <v>3</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>2</v>
@@ -1603,10 +1641,13 @@
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
@@ -1624,17 +1665,20 @@
       <c r="I9" s="7">
         <v>401</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>30</v>
@@ -1643,7 +1687,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>69</v>
@@ -1651,14 +1695,17 @@
       <c r="I10" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>29</v>
@@ -1675,10 +1722,13 @@
       <c r="H11" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1692,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>20</v>
       </c>
@@ -1702,7 +1752,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>4</v>
@@ -1710,29 +1760,32 @@
       <c r="I13" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:9" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>99</v>
+      <c r="B16" s="57" t="s">
+        <v>98</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -1744,10 +1797,10 @@
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>81</v>
+        <v>107</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>80</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -1761,7 +1814,7 @@
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="52"/>
@@ -1775,11 +1828,11 @@
       <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="30"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1825,7 +1878,7 @@
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="38"/>
     </row>
@@ -1834,7 +1887,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>51</v>
@@ -1856,7 +1909,7 @@
     <row r="23" spans="1:9" s="35" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>52</v>
@@ -1869,7 +1922,7 @@
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="38" t="s">
         <v>53</v>
@@ -1907,7 +1960,7 @@
         <v>58</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>22</v>
@@ -1919,10 +1972,10 @@
         <v>21</v>
       </c>
       <c r="G25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="40" t="s">
         <v>71</v>
-      </c>
-      <c r="H25" s="40" t="s">
-        <v>72</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -1946,11 +1999,11 @@
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
@@ -1961,8 +2014,8 @@
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="51" t="s">
-        <v>98</v>
+      <c r="B29" s="57" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -1974,10 +2027,10 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -1991,7 +2044,7 @@
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="51" t="s">
         <v>55</v>
       </c>
       <c r="C31" s="52"/>
@@ -2005,11 +2058,11 @@
       <c r="A32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="30"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2047,7 +2100,7 @@
     <row r="34" spans="1:9" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>64</v>
@@ -2060,13 +2113,13 @@
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="I34" s="41" t="s">
         <v>88</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -2101,10 +2154,10 @@
     <row r="36" spans="1:9" s="16" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>22</v>
@@ -2116,13 +2169,13 @@
         <v>21</v>
       </c>
       <c r="G36" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="I36" s="38" t="s">
         <v>74</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="6" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2146,6 +2199,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B17:D17"/>
@@ -2154,13 +2214,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/example.xlsx
+++ b/example.xlsx
@@ -475,10 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oxhhddd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正常场景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,15 +557,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无密码账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>guess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>填写任意密码都可以通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1032,37 +1032,40 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1388,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -1419,7 +1422,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>41</v>
@@ -1439,7 +1442,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="20"/>
@@ -1470,7 +1473,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J8" sqref="J8"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1490,11 +1493,11 @@
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
@@ -1505,11 +1508,11 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="18"/>
@@ -1518,13 +1521,13 @@
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="58"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
@@ -1533,13 +1536,13 @@
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1547,13 +1550,13 @@
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="30"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1616,7 +1619,7 @@
         <v>93</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1641,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1687,7 +1690,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>69</v>
@@ -1696,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1723,12 +1726,12 @@
         <v>4</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
@@ -1752,16 +1755,16 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="51" t="s">
         <v>10</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1769,11 +1772,11 @@
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
@@ -1784,11 +1787,11 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
+      <c r="B16" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="29"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18"/>
@@ -1797,13 +1800,13 @@
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
       <c r="E17" s="29"/>
       <c r="F17" s="8"/>
       <c r="G17" s="15"/>
@@ -1814,11 +1817,11 @@
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
       <c r="E18" s="29"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1828,11 +1831,11 @@
       <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="30"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -1999,11 +2002,11 @@
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
@@ -2014,11 +2017,11 @@
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="29"/>
       <c r="F29" s="8"/>
       <c r="G29" s="18"/>
@@ -2027,13 +2030,13 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="29"/>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
@@ -2044,11 +2047,11 @@
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="29"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -2058,11 +2061,11 @@
       <c r="A32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
       <c r="E32" s="30"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2199,13 +2202,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B17:D17"/>
@@ -2214,6 +2210,13 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">

--- a/example.xlsx
+++ b/example.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>Q123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,6 +495,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Response Headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request Headers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "0",
+    "message": "success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code": "0",
+    "message": "success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写任意密码都可以通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Example </t>
     </r>
@@ -502,8 +564,8 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接口文档</t>
@@ -511,65 +573,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Response Headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": "0",
-    "message": "success"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "code": "0",
-    "message": "success"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写任意密码都可以通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>Example</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,13 +607,6 @@
       <color theme="0"/>
       <name val="Open Sans"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -896,176 +893,176 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="8" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="9" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1371,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -1388,14 +1385,16 @@
         <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
@@ -1422,7 +1421,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>41</v>
@@ -1442,7 +1441,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="20"/>
@@ -1471,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
@@ -1493,11 +1492,11 @@
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="29"/>
       <c r="F1" s="8"/>
       <c r="G1" s="18"/>
@@ -1508,11 +1507,11 @@
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="29"/>
       <c r="F2" s="8"/>
       <c r="G2" s="18"/>
@@ -1521,13 +1520,13 @@
     </row>
     <row r="3" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="10"/>
       <c r="F3" s="8"/>
       <c r="G3" s="15"/>
@@ -1536,13 +1535,13 @@
     </row>
     <row r="4" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="29"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -1550,13 +1549,13 @@
     </row>
     <row r="5" spans="1:10" s="9" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="30"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -1619,7 +1618,7 @@
         <v>93</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1644,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="7" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1690,7 +1689,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>69</v>
@@ -1699,7 +1698,7 @@
         <v>32</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="14" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1726,7 +1725,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="43" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -1764,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -1772,11 +1771,11 @@
       <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="29"/>
       <c r="F15" s="8"/>
       <c r="G15" s="18"/>
@@ -1787,11 +1786,11 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="29"/>
       <c r="F16" s="8"/>
       <c r="G16" s="18"/>
@@ -1800,13 +1799,13 @@
     </row>
     <row r="17" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="29"/>
       <c r="F17" s="8"/>
       <c r="G17" s="15"/>
@@ -1817,11 +1816,11 @@
       <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
       <c r="E18" s="29"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -1831,11 +1830,11 @@
       <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="30"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
@@ -2002,11 +2001,11 @@
       <c r="A28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="29"/>
       <c r="F28" s="8"/>
       <c r="G28" s="18"/>
@@ -2017,11 +2016,11 @@
       <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="29"/>
       <c r="F29" s="8"/>
       <c r="G29" s="18"/>
@@ -2030,13 +2029,13 @@
     </row>
     <row r="30" spans="1:9" s="9" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="29"/>
       <c r="F30" s="8"/>
       <c r="G30" s="15"/>
@@ -2047,11 +2046,11 @@
       <c r="A31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="29"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
@@ -2061,11 +2060,11 @@
       <c r="A32" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="30"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
@@ -2202,6 +2201,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B17:D17"/>
@@ -2210,13 +2216,6 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
